--- a/Data_clean/MCAS/Estados_US/Edos_USA_2016/SOUTH_CAROLINA_2016.xlsx
+++ b/Data_clean/MCAS/Estados_US/Edos_USA_2016/SOUTH_CAROLINA_2016.xlsx
@@ -351,7 +351,7 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <dimension ref="A1:D1212"/>
+  <dimension ref="A1:D1206"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0"/>
   </sheetViews>
@@ -360,22 +360,22 @@
     <row r="1" s="1" customFormat="1">
       <c r="A1" s="1" t="inlineStr">
         <is>
-          <t>Estado de Origen</t>
+          <t>mx_state</t>
         </is>
       </c>
       <c r="B1" s="1" t="inlineStr">
         <is>
-          <t>Municipio Origen</t>
+          <t>mx_municipality</t>
         </is>
       </c>
       <c r="C1" s="1" t="inlineStr">
         <is>
-          <t>Número de Matrículas</t>
+          <t>n_matriculas</t>
         </is>
       </c>
       <c r="D1" s="1" t="inlineStr">
         <is>
-          <t>Porcentaje de Matrículas</t>
+          <t>pct_matriculas</t>
         </is>
       </c>
     </row>
@@ -426,7 +426,7 @@
     <row r="5">
       <c r="B5" t="inlineStr">
         <is>
-          <t>Pabellón de Arteaga</t>
+          <t>Pabellón De Arteaga</t>
         </is>
       </c>
       <c r="C5">
@@ -439,7 +439,7 @@
     <row r="6">
       <c r="B6" t="inlineStr">
         <is>
-          <t>Rincón de Romos</t>
+          <t>Rincón De Romos</t>
         </is>
       </c>
       <c r="C6">
@@ -706,20 +706,20 @@
     <row r="25">
       <c r="B25" t="inlineStr">
         <is>
-          <t>Amatenango de la Frontera</t>
+          <t>Amatenango De La Frontera</t>
         </is>
       </c>
       <c r="C25">
         <v>9</v>
       </c>
       <c r="D25">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="26">
       <c r="B26" t="inlineStr">
         <is>
-          <t>Amatenango del Valle</t>
+          <t>Amatenango Del Valle</t>
         </is>
       </c>
       <c r="C26">
@@ -758,7 +758,7 @@
     <row r="29">
       <c r="B29" t="inlineStr">
         <is>
-          <t>Bejucal de Ocampo</t>
+          <t>Bejucal De Ocampo</t>
         </is>
       </c>
       <c r="C29">
@@ -784,7 +784,7 @@
     <row r="31">
       <c r="B31" t="inlineStr">
         <is>
-          <t>Benemérito de las Américas</t>
+          <t>Benemérito De Las Américas</t>
         </is>
       </c>
       <c r="C31">
@@ -849,7 +849,7 @@
     <row r="36">
       <c r="B36" t="inlineStr">
         <is>
-          <t>Chiapa de Corzo</t>
+          <t>Chiapa De Corzo</t>
         </is>
       </c>
       <c r="C36">
@@ -914,7 +914,7 @@
     <row r="41">
       <c r="B41" t="inlineStr">
         <is>
-          <t>Comitán de Domínguez</t>
+          <t>Comitán De Domínguez</t>
         </is>
       </c>
       <c r="C41">
@@ -1135,7 +1135,7 @@
     <row r="58">
       <c r="B58" t="inlineStr">
         <is>
-          <t>Mazapa de Madero</t>
+          <t>Mazapa De Madero</t>
         </is>
       </c>
       <c r="C58">
@@ -1187,7 +1187,7 @@
     <row r="62">
       <c r="B62" t="inlineStr">
         <is>
-          <t>Ocozocoautla de Espinosa</t>
+          <t>Ocozocoautla De Espinosa</t>
         </is>
       </c>
       <c r="C62">
@@ -1278,7 +1278,7 @@
     <row r="69">
       <c r="B69" t="inlineStr">
         <is>
-          <t>Salto de Agua</t>
+          <t>Salto De Agua</t>
         </is>
       </c>
       <c r="C69">
@@ -1291,7 +1291,7 @@
     <row r="70">
       <c r="B70" t="inlineStr">
         <is>
-          <t>San Cristóbal de las Casas</t>
+          <t>San Cristóbal De Las Casas</t>
         </is>
       </c>
       <c r="C70">
@@ -1621,7 +1621,7 @@
     <row r="95">
       <c r="B95" t="inlineStr">
         <is>
-          <t>Coyame del Sotol</t>
+          <t>Coyame Del Sotol</t>
         </is>
       </c>
       <c r="C95">
@@ -1673,7 +1673,7 @@
     <row r="99">
       <c r="B99" t="inlineStr">
         <is>
-          <t>Guadalupe y Calvo</t>
+          <t>Guadalupe Y Calvo</t>
         </is>
       </c>
       <c r="C99">
@@ -1699,7 +1699,7 @@
     <row r="101">
       <c r="B101" t="inlineStr">
         <is>
-          <t>Hidalgo del Parral</t>
+          <t>Hidalgo Del Parral</t>
         </is>
       </c>
       <c r="C101">
@@ -1964,7 +1964,7 @@
     <row r="121">
       <c r="B121" t="inlineStr">
         <is>
-          <t>San Juan de Sabinas</t>
+          <t>San Juan De Sabinas</t>
         </is>
       </c>
       <c r="C121">
@@ -2086,7 +2086,7 @@
     <row r="130">
       <c r="B130" t="inlineStr">
         <is>
-          <t>Villa de Álvarez</t>
+          <t>Villa De Álvarez</t>
         </is>
       </c>
       <c r="C130">
@@ -2112,7 +2112,7 @@
     <row r="132">
       <c r="A132" t="inlineStr">
         <is>
-          <t>Ciudad de México</t>
+          <t>Ciudad De México</t>
         </is>
       </c>
       <c r="B132" t="inlineStr">
@@ -2421,7 +2421,7 @@
     <row r="155">
       <c r="B155" t="inlineStr">
         <is>
-          <t>Nombre de Dios</t>
+          <t>Nombre De Dios</t>
         </is>
       </c>
       <c r="C155">
@@ -2447,7 +2447,7 @@
     <row r="157">
       <c r="B157" t="inlineStr">
         <is>
-          <t>Pánuco de Coronado</t>
+          <t>Pánuco De Coronado</t>
         </is>
       </c>
       <c r="C157">
@@ -2486,7 +2486,7 @@
     <row r="160">
       <c r="B160" t="inlineStr">
         <is>
-          <t>San Juan de Guadalupe</t>
+          <t>San Juan De Guadalupe</t>
         </is>
       </c>
       <c r="C160">
@@ -2551,12 +2551,12 @@
     <row r="165">
       <c r="A165" t="inlineStr">
         <is>
-          <t>Estado de México</t>
+          <t>Estado De México</t>
         </is>
       </c>
       <c r="B165" t="inlineStr">
         <is>
-          <t>Acambay de Ruíz Castañeda</t>
+          <t>Acambay De Ruíz Castañeda</t>
         </is>
       </c>
       <c r="C165">
@@ -2595,7 +2595,7 @@
     <row r="168">
       <c r="B168" t="inlineStr">
         <is>
-          <t>Almoloya de Alquisiras</t>
+          <t>Almoloya De Alquisiras</t>
         </is>
       </c>
       <c r="C168">
@@ -2608,7 +2608,7 @@
     <row r="169">
       <c r="B169" t="inlineStr">
         <is>
-          <t>Almoloya de Juárez</t>
+          <t>Almoloya De Juárez</t>
         </is>
       </c>
       <c r="C169">
@@ -2660,7 +2660,7 @@
     <row r="173">
       <c r="B173" t="inlineStr">
         <is>
-          <t>Atizapán de Zaragoza</t>
+          <t>Atizapán De Zaragoza</t>
         </is>
       </c>
       <c r="C173">
@@ -2738,7 +2738,7 @@
     <row r="179">
       <c r="B179" t="inlineStr">
         <is>
-          <t>Chapa de Mota</t>
+          <t>Chapa De Mota</t>
         </is>
       </c>
       <c r="C179">
@@ -2777,7 +2777,7 @@
     <row r="182">
       <c r="B182" t="inlineStr">
         <is>
-          <t>Coacalco de Berriozábal</t>
+          <t>Coacalco De Berriozábal</t>
         </is>
       </c>
       <c r="C182">
@@ -2829,7 +2829,7 @@
     <row r="186">
       <c r="B186" t="inlineStr">
         <is>
-          <t>Ecatepec de Morelos</t>
+          <t>Ecatepec De Morelos</t>
         </is>
       </c>
       <c r="C186">
@@ -3037,7 +3037,7 @@
     <row r="202">
       <c r="B202" t="inlineStr">
         <is>
-          <t>Naucalpan de Juárez</t>
+          <t>Naucalpan De Juárez</t>
         </is>
       </c>
       <c r="C202">
@@ -3096,7 +3096,7 @@
         <v>9</v>
       </c>
       <c r="D206">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="207">
@@ -3128,7 +3128,7 @@
     <row r="209">
       <c r="B209" t="inlineStr">
         <is>
-          <t>San Felipe del Progreso</t>
+          <t>San Felipe Del Progreso</t>
         </is>
       </c>
       <c r="C209">
@@ -3141,7 +3141,7 @@
     <row r="210">
       <c r="B210" t="inlineStr">
         <is>
-          <t>San Martín de las Pirámides</t>
+          <t>San Martín De Las Pirámides</t>
         </is>
       </c>
       <c r="C210">
@@ -3154,7 +3154,7 @@
     <row r="211">
       <c r="B211" t="inlineStr">
         <is>
-          <t>San Simón de Guerrero</t>
+          <t>San Simón De Guerrero</t>
         </is>
       </c>
       <c r="C211">
@@ -3180,7 +3180,7 @@
     <row r="213">
       <c r="B213" t="inlineStr">
         <is>
-          <t>Soyaniquilpan de Juárez</t>
+          <t>Soyaniquilpan De Juárez</t>
         </is>
       </c>
       <c r="C213">
@@ -3284,7 +3284,7 @@
     <row r="221">
       <c r="B221" t="inlineStr">
         <is>
-          <t>Tenango del Valle</t>
+          <t>Tenango Del Valle</t>
         </is>
       </c>
       <c r="C221">
@@ -3375,7 +3375,7 @@
     <row r="228">
       <c r="B228" t="inlineStr">
         <is>
-          <t>Tlalnepantla de Baz</t>
+          <t>Tlalnepantla De Baz</t>
         </is>
       </c>
       <c r="C228">
@@ -3440,7 +3440,7 @@
     <row r="233">
       <c r="B233" t="inlineStr">
         <is>
-          <t>Valle de Bravo</t>
+          <t>Valle De Bravo</t>
         </is>
       </c>
       <c r="C233">
@@ -3453,7 +3453,7 @@
     <row r="234">
       <c r="B234" t="inlineStr">
         <is>
-          <t>Valle de Chalco Solidaridad</t>
+          <t>Valle De Chalco Solidaridad</t>
         </is>
       </c>
       <c r="C234">
@@ -3466,7 +3466,7 @@
     <row r="235">
       <c r="B235" t="inlineStr">
         <is>
-          <t>Villa de Allende</t>
+          <t>Villa De Allende</t>
         </is>
       </c>
       <c r="C235">
@@ -3479,7 +3479,7 @@
     <row r="236">
       <c r="B236" t="inlineStr">
         <is>
-          <t>Villa del Carbón</t>
+          <t>Villa Del Carbón</t>
         </is>
       </c>
       <c r="C236">
@@ -3614,7 +3614,7 @@
     <row r="246">
       <c r="B246" t="inlineStr">
         <is>
-          <t>San Miguel de Allende</t>
+          <t>San Miguel De Allende</t>
         </is>
       </c>
       <c r="C246">
@@ -3627,7 +3627,7 @@
     <row r="247">
       <c r="B247" t="inlineStr">
         <is>
-          <t>Apaseo el Alto</t>
+          <t>Apaseo El Alto</t>
         </is>
       </c>
       <c r="C247">
@@ -3640,7 +3640,7 @@
     <row r="248">
       <c r="B248" t="inlineStr">
         <is>
-          <t>Apaseo el Grande</t>
+          <t>Apaseo El Grande</t>
         </is>
       </c>
       <c r="C248">
@@ -3744,7 +3744,7 @@
     <row r="256">
       <c r="B256" t="inlineStr">
         <is>
-          <t>Dolores Hidalgo Cuna de la Independencia Nacional</t>
+          <t>Dolores Hidalgo Cuna De La Independencia Nacional</t>
         </is>
       </c>
       <c r="C256">
@@ -3796,7 +3796,7 @@
     <row r="260">
       <c r="B260" t="inlineStr">
         <is>
-          <t>Jaral del Progreso</t>
+          <t>Jaral Del Progreso</t>
         </is>
       </c>
       <c r="C260">
@@ -3887,7 +3887,7 @@
     <row r="267">
       <c r="B267" t="inlineStr">
         <is>
-          <t>Purísima del Rincón</t>
+          <t>Purísima Del Rincón</t>
         </is>
       </c>
       <c r="C267">
@@ -3939,7 +3939,7 @@
     <row r="271">
       <c r="B271" t="inlineStr">
         <is>
-          <t>San Diego de la Unión</t>
+          <t>San Diego De La Unión</t>
         </is>
       </c>
       <c r="C271">
@@ -3965,7 +3965,7 @@
     <row r="273">
       <c r="B273" t="inlineStr">
         <is>
-          <t>San Francisco del Rincón</t>
+          <t>San Francisco Del Rincón</t>
         </is>
       </c>
       <c r="C273">
@@ -3991,7 +3991,7 @@
     <row r="275">
       <c r="B275" t="inlineStr">
         <is>
-          <t>San Luis de la Paz</t>
+          <t>San Luis De La Paz</t>
         </is>
       </c>
       <c r="C275">
@@ -4017,7 +4017,7 @@
     <row r="277">
       <c r="B277" t="inlineStr">
         <is>
-          <t>Santa Cruz de Juventino Rosas</t>
+          <t>Santa Cruz De Juventino Rosas</t>
         </is>
       </c>
       <c r="C277">
@@ -4030,7 +4030,7 @@
     <row r="278">
       <c r="B278" t="inlineStr">
         <is>
-          <t>Silao de la Victoria</t>
+          <t>Silao De La Victoria</t>
         </is>
       </c>
       <c r="C278">
@@ -4082,7 +4082,7 @@
     <row r="282">
       <c r="B282" t="inlineStr">
         <is>
-          <t>Valle de Santiago</t>
+          <t>Valle De Santiago</t>
         </is>
       </c>
       <c r="C282">
@@ -4165,7 +4165,7 @@
       </c>
       <c r="B288" t="inlineStr">
         <is>
-          <t>Acapulco de Juárez</t>
+          <t>Acapulco De Juárez</t>
         </is>
       </c>
       <c r="C288">
@@ -4191,7 +4191,7 @@
     <row r="290">
       <c r="B290" t="inlineStr">
         <is>
-          <t>Ajuchitlán del Progreso</t>
+          <t>Ajuchitlán Del Progreso</t>
         </is>
       </c>
       <c r="C290">
@@ -4204,7 +4204,7 @@
     <row r="291">
       <c r="B291" t="inlineStr">
         <is>
-          <t>Alcozauca de Guerrero</t>
+          <t>Alcozauca De Guerrero</t>
         </is>
       </c>
       <c r="C291">
@@ -4243,7 +4243,7 @@
     <row r="294">
       <c r="B294" t="inlineStr">
         <is>
-          <t>Atenango del Río</t>
+          <t>Atenango Del Río</t>
         </is>
       </c>
       <c r="C294">
@@ -4269,7 +4269,7 @@
     <row r="296">
       <c r="B296" t="inlineStr">
         <is>
-          <t>Atoyac de Álvarez</t>
+          <t>Atoyac De Álvarez</t>
         </is>
       </c>
       <c r="C296">
@@ -4282,7 +4282,7 @@
     <row r="297">
       <c r="B297" t="inlineStr">
         <is>
-          <t>Ayutla de los Libres</t>
+          <t>Ayutla De Los Libres</t>
         </is>
       </c>
       <c r="C297">
@@ -4321,7 +4321,7 @@
     <row r="300">
       <c r="B300" t="inlineStr">
         <is>
-          <t>Buenavista de Cuéllar</t>
+          <t>Buenavista De Cuéllar</t>
         </is>
       </c>
       <c r="C300">
@@ -4334,7 +4334,7 @@
     <row r="301">
       <c r="B301" t="inlineStr">
         <is>
-          <t>Chilapa de Álvarez</t>
+          <t>Chilapa De Álvarez</t>
         </is>
       </c>
       <c r="C301">
@@ -4347,7 +4347,7 @@
     <row r="302">
       <c r="B302" t="inlineStr">
         <is>
-          <t>Chilpancingo de los Bravo</t>
+          <t>Chilpancingo De Los Bravo</t>
         </is>
       </c>
       <c r="C302">
@@ -4360,7 +4360,7 @@
     <row r="303">
       <c r="B303" t="inlineStr">
         <is>
-          <t>Coahuayutla de José María Izazaga</t>
+          <t>Coahuayutla De José María Izazaga</t>
         </is>
       </c>
       <c r="C303">
@@ -4399,7 +4399,7 @@
     <row r="306">
       <c r="B306" t="inlineStr">
         <is>
-          <t>Coyuca de Benítez</t>
+          <t>Coyuca De Benítez</t>
         </is>
       </c>
       <c r="C306">
@@ -4412,7 +4412,7 @@
     <row r="307">
       <c r="B307" t="inlineStr">
         <is>
-          <t>Coyuca de Catalán</t>
+          <t>Coyuca De Catalán</t>
         </is>
       </c>
       <c r="C307">
@@ -4464,7 +4464,7 @@
     <row r="311">
       <c r="B311" t="inlineStr">
         <is>
-          <t>Cutzamala de Pinzón</t>
+          <t>Cutzamala De Pinzón</t>
         </is>
       </c>
       <c r="C311">
@@ -4529,7 +4529,7 @@
     <row r="316">
       <c r="B316" t="inlineStr">
         <is>
-          <t>Huitzuco de los Figueroa</t>
+          <t>Huitzuco De Los Figueroa</t>
         </is>
       </c>
       <c r="C316">
@@ -4542,7 +4542,7 @@
     <row r="317">
       <c r="B317" t="inlineStr">
         <is>
-          <t>Iguala de la Independencia</t>
+          <t>Iguala De La Independencia</t>
         </is>
       </c>
       <c r="C317">
@@ -4568,7 +4568,7 @@
     <row r="319">
       <c r="B319" t="inlineStr">
         <is>
-          <t>Ixcateopan de Cuauhtémoc</t>
+          <t>Ixcateopan De Cuauhtémoc</t>
         </is>
       </c>
       <c r="C319">
@@ -4581,7 +4581,7 @@
     <row r="320">
       <c r="B320" t="inlineStr">
         <is>
-          <t>Zihuatanejo de Azueta</t>
+          <t>Zihuatanejo De Azueta</t>
         </is>
       </c>
       <c r="C320">
@@ -4607,7 +4607,7 @@
     <row r="322">
       <c r="B322" t="inlineStr">
         <is>
-          <t>La Unión de Isidoro Montes de Oca</t>
+          <t>La Unión De Isidoro Montes De Oca</t>
         </is>
       </c>
       <c r="C322">
@@ -4646,7 +4646,7 @@
     <row r="325">
       <c r="B325" t="inlineStr">
         <is>
-          <t>Mártir de Cuilapan</t>
+          <t>Mártir De Cuilapan</t>
         </is>
       </c>
       <c r="C325">
@@ -4705,7 +4705,7 @@
         <v>9</v>
       </c>
       <c r="D329">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="330">
@@ -4802,7 +4802,7 @@
     <row r="337">
       <c r="B337" t="inlineStr">
         <is>
-          <t>Taxco de Alarcón</t>
+          <t>Taxco De Alarcón</t>
         </is>
       </c>
       <c r="C337">
@@ -4828,7 +4828,7 @@
     <row r="339">
       <c r="B339" t="inlineStr">
         <is>
-          <t>Técpan de Galeana</t>
+          <t>Técpan De Galeana</t>
         </is>
       </c>
       <c r="C339">
@@ -4854,7 +4854,7 @@
     <row r="341">
       <c r="B341" t="inlineStr">
         <is>
-          <t>Tepecoacuilco de Trujano</t>
+          <t>Tepecoacuilco De Trujano</t>
         </is>
       </c>
       <c r="C341">
@@ -4880,7 +4880,7 @@
     <row r="343">
       <c r="B343" t="inlineStr">
         <is>
-          <t>Tixtla de Guerrero</t>
+          <t>Tixtla De Guerrero</t>
         </is>
       </c>
       <c r="C343">
@@ -4932,7 +4932,7 @@
     <row r="347">
       <c r="B347" t="inlineStr">
         <is>
-          <t>Tlapa de Comonfort</t>
+          <t>Tlapa De Comonfort</t>
         </is>
       </c>
       <c r="C347">
@@ -5030,7 +5030,7 @@
         <v>9</v>
       </c>
       <c r="D354">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="355">
@@ -5093,7 +5093,7 @@
     <row r="359">
       <c r="B359" t="inlineStr">
         <is>
-          <t>Agua Blanca de Iturbide</t>
+          <t>Agua Blanca De Iturbide</t>
         </is>
       </c>
       <c r="C359">
@@ -5171,7 +5171,7 @@
     <row r="365">
       <c r="B365" t="inlineStr">
         <is>
-          <t>Atotonilco el Grande</t>
+          <t>Atotonilco El Grande</t>
         </is>
       </c>
       <c r="C365">
@@ -5249,7 +5249,7 @@
     <row r="371">
       <c r="B371" t="inlineStr">
         <is>
-          <t>Cuautepec de Hinojosa</t>
+          <t>Cuautepec De Hinojosa</t>
         </is>
       </c>
       <c r="C371">
@@ -5288,7 +5288,7 @@
     <row r="374">
       <c r="B374" t="inlineStr">
         <is>
-          <t>Huasca de Ocampo</t>
+          <t>Huasca De Ocampo</t>
         </is>
       </c>
       <c r="C374">
@@ -5327,7 +5327,7 @@
     <row r="377">
       <c r="B377" t="inlineStr">
         <is>
-          <t>Huejutla de Reyes</t>
+          <t>Huejutla De Reyes</t>
         </is>
       </c>
       <c r="C377">
@@ -5366,7 +5366,7 @@
     <row r="380">
       <c r="B380" t="inlineStr">
         <is>
-          <t>Jacala de Ledezma</t>
+          <t>Jacala De Ledezma</t>
         </is>
       </c>
       <c r="C380">
@@ -5431,7 +5431,7 @@
     <row r="385">
       <c r="B385" t="inlineStr">
         <is>
-          <t>Mineral del Chico</t>
+          <t>Mineral Del Chico</t>
         </is>
       </c>
       <c r="C385">
@@ -5444,7 +5444,7 @@
     <row r="386">
       <c r="B386" t="inlineStr">
         <is>
-          <t>Mineral del Monte</t>
+          <t>Mineral Del Monte</t>
         </is>
       </c>
       <c r="C386">
@@ -5457,7 +5457,7 @@
     <row r="387">
       <c r="B387" t="inlineStr">
         <is>
-          <t>Molango de Escamilla</t>
+          <t>Molango De Escamilla</t>
         </is>
       </c>
       <c r="C387">
@@ -5483,7 +5483,7 @@
     <row r="389">
       <c r="B389" t="inlineStr">
         <is>
-          <t>Nopala de Villagrán</t>
+          <t>Nopala De Villagrán</t>
         </is>
       </c>
       <c r="C389">
@@ -5496,7 +5496,7 @@
     <row r="390">
       <c r="B390" t="inlineStr">
         <is>
-          <t>Omitlán de Juárez</t>
+          <t>Omitlán De Juárez</t>
         </is>
       </c>
       <c r="C390">
@@ -5509,7 +5509,7 @@
     <row r="391">
       <c r="B391" t="inlineStr">
         <is>
-          <t>Pachuca de Soto</t>
+          <t>Pachuca De Soto</t>
         </is>
       </c>
       <c r="C391">
@@ -5548,7 +5548,7 @@
     <row r="394">
       <c r="B394" t="inlineStr">
         <is>
-          <t>Progreso de Obregón</t>
+          <t>Progreso De Obregón</t>
         </is>
       </c>
       <c r="C394">
@@ -5613,7 +5613,7 @@
     <row r="399">
       <c r="B399" t="inlineStr">
         <is>
-          <t>Santiago de Anaya</t>
+          <t>Santiago De Anaya</t>
         </is>
       </c>
       <c r="C399">
@@ -5626,7 +5626,7 @@
     <row r="400">
       <c r="B400" t="inlineStr">
         <is>
-          <t>Santiago Tulantepec de Lugo Guerrero</t>
+          <t>Santiago Tulantepec De Lugo Guerrero</t>
         </is>
       </c>
       <c r="C400">
@@ -5678,7 +5678,7 @@
     <row r="404">
       <c r="B404" t="inlineStr">
         <is>
-          <t>Tenango de Doria</t>
+          <t>Tenango De Doria</t>
         </is>
       </c>
       <c r="C404">
@@ -5691,7 +5691,7 @@
     <row r="405">
       <c r="B405" t="inlineStr">
         <is>
-          <t>Tepehuacán de Guerrero</t>
+          <t>Tepehuacán De Guerrero</t>
         </is>
       </c>
       <c r="C405">
@@ -5704,7 +5704,7 @@
     <row r="406">
       <c r="B406" t="inlineStr">
         <is>
-          <t>Tepeji del Río de Ocampo</t>
+          <t>Tepeji Del Río De Ocampo</t>
         </is>
       </c>
       <c r="C406">
@@ -5717,7 +5717,7 @@
     <row r="407">
       <c r="B407" t="inlineStr">
         <is>
-          <t>Tezontepec de Aldama</t>
+          <t>Tezontepec De Aldama</t>
         </is>
       </c>
       <c r="C407">
@@ -5795,7 +5795,7 @@
     <row r="413">
       <c r="B413" t="inlineStr">
         <is>
-          <t>Tula de Allende</t>
+          <t>Tula De Allende</t>
         </is>
       </c>
       <c r="C413">
@@ -5808,7 +5808,7 @@
     <row r="414">
       <c r="B414" t="inlineStr">
         <is>
-          <t>Tulancingo de Bravo</t>
+          <t>Tulancingo De Bravo</t>
         </is>
       </c>
       <c r="C414">
@@ -5847,7 +5847,7 @@
     <row r="417">
       <c r="B417" t="inlineStr">
         <is>
-          <t>Zacualtipán de Ángeles</t>
+          <t>Zacualtipán De Ángeles</t>
         </is>
       </c>
       <c r="C417">
@@ -5917,7 +5917,7 @@
     <row r="422">
       <c r="B422" t="inlineStr">
         <is>
-          <t>Ahualulco de Mercado</t>
+          <t>Ahualulco De Mercado</t>
         </is>
       </c>
       <c r="C422">
@@ -6073,7 +6073,7 @@
     <row r="434">
       <c r="B434" t="inlineStr">
         <is>
-          <t>Encarnación de Díaz</t>
+          <t>Encarnación De Díaz</t>
         </is>
       </c>
       <c r="C434">
@@ -6125,7 +6125,7 @@
     <row r="438">
       <c r="B438" t="inlineStr">
         <is>
-          <t>Ixtlahuacán del Río</t>
+          <t>Ixtlahuacán Del Río</t>
         </is>
       </c>
       <c r="C438">
@@ -6164,7 +6164,7 @@
     <row r="441">
       <c r="B441" t="inlineStr">
         <is>
-          <t>Jilotlán de los Dolores</t>
+          <t>Jilotlán De Los Dolores</t>
         </is>
       </c>
       <c r="C441">
@@ -6203,7 +6203,7 @@
     <row r="444">
       <c r="B444" t="inlineStr">
         <is>
-          <t>La Manzanilla de la Paz</t>
+          <t>La Manzanilla De La Paz</t>
         </is>
       </c>
       <c r="C444">
@@ -6216,7 +6216,7 @@
     <row r="445">
       <c r="B445" t="inlineStr">
         <is>
-          <t>Lagos de Moreno</t>
+          <t>Lagos De Moreno</t>
         </is>
       </c>
       <c r="C445">
@@ -6255,7 +6255,7 @@
     <row r="448">
       <c r="B448" t="inlineStr">
         <is>
-          <t>Ojuelos de Jalisco</t>
+          <t>Ojuelos De Jalisco</t>
         </is>
       </c>
       <c r="C448">
@@ -6320,7 +6320,7 @@
     <row r="453">
       <c r="B453" t="inlineStr">
         <is>
-          <t>San Juan de los Lagos</t>
+          <t>San Juan De Los Lagos</t>
         </is>
       </c>
       <c r="C453">
@@ -6333,7 +6333,7 @@
     <row r="454">
       <c r="B454" t="inlineStr">
         <is>
-          <t>San Miguel el Alto</t>
+          <t>San Miguel El Alto</t>
         </is>
       </c>
       <c r="C454">
@@ -6359,7 +6359,7 @@
     <row r="456">
       <c r="B456" t="inlineStr">
         <is>
-          <t>Talpa de Allende</t>
+          <t>Talpa De Allende</t>
         </is>
       </c>
       <c r="C456">
@@ -6372,7 +6372,7 @@
     <row r="457">
       <c r="B457" t="inlineStr">
         <is>
-          <t>Tamazula de Gordiano</t>
+          <t>Tamazula De Gordiano</t>
         </is>
       </c>
       <c r="C457">
@@ -6424,7 +6424,7 @@
     <row r="461">
       <c r="B461" t="inlineStr">
         <is>
-          <t>Tepatitlán de Morelos</t>
+          <t>Tepatitlán De Morelos</t>
         </is>
       </c>
       <c r="C461">
@@ -6450,7 +6450,7 @@
     <row r="463">
       <c r="B463" t="inlineStr">
         <is>
-          <t>Tizapán el Alto</t>
+          <t>Tizapán El Alto</t>
         </is>
       </c>
       <c r="C463">
@@ -6463,7 +6463,7 @@
     <row r="464">
       <c r="B464" t="inlineStr">
         <is>
-          <t>Tlajomulco de Zúñiga</t>
+          <t>Tlajomulco De Zúñiga</t>
         </is>
       </c>
       <c r="C464">
@@ -6515,7 +6515,7 @@
     <row r="468">
       <c r="B468" t="inlineStr">
         <is>
-          <t>Unión de San Antonio</t>
+          <t>Unión De San Antonio</t>
         </is>
       </c>
       <c r="C468">
@@ -6528,7 +6528,7 @@
     <row r="469">
       <c r="B469" t="inlineStr">
         <is>
-          <t>Unión de Tula</t>
+          <t>Unión De Tula</t>
         </is>
       </c>
       <c r="C469">
@@ -6554,7 +6554,7 @@
     <row r="471">
       <c r="B471" t="inlineStr">
         <is>
-          <t>Yahualica de González Gallo</t>
+          <t>Yahualica De González Gallo</t>
         </is>
       </c>
       <c r="C471">
@@ -6580,7 +6580,7 @@
     <row r="473">
       <c r="B473" t="inlineStr">
         <is>
-          <t>Zapotlán el Grande</t>
+          <t>Zapotlán El Grande</t>
         </is>
       </c>
       <c r="C473">
@@ -6806,7 +6806,7 @@
     <row r="490">
       <c r="B490" t="inlineStr">
         <is>
-          <t>Coalcomán de Vázquez Pallares</t>
+          <t>Coalcomán De Vázquez Pallares</t>
         </is>
       </c>
       <c r="C490">
@@ -6832,7 +6832,7 @@
     <row r="492">
       <c r="B492" t="inlineStr">
         <is>
-          <t>Cojumatlán de Régules</t>
+          <t>Cojumatlán De Régules</t>
         </is>
       </c>
       <c r="C492">
@@ -7404,7 +7404,7 @@
     <row r="536">
       <c r="B536" t="inlineStr">
         <is>
-          <t>Tiquicheo de Nicolás Romero</t>
+          <t>Tiquicheo De Nicolás Romero</t>
         </is>
       </c>
       <c r="C536">
@@ -7669,7 +7669,7 @@
     <row r="556">
       <c r="B556" t="inlineStr">
         <is>
-          <t>Coatlán del Río</t>
+          <t>Coatlán Del Río</t>
         </is>
       </c>
       <c r="C556">
@@ -7760,7 +7760,7 @@
     <row r="563">
       <c r="B563" t="inlineStr">
         <is>
-          <t>Jonacatepec de Leandro Valle</t>
+          <t>Jonacatepec De Leandro Valle</t>
         </is>
       </c>
       <c r="C563">
@@ -7812,7 +7812,7 @@
     <row r="567">
       <c r="B567" t="inlineStr">
         <is>
-          <t>Puente de Ixtla</t>
+          <t>Puente De Ixtla</t>
         </is>
       </c>
       <c r="C567">
@@ -7864,7 +7864,7 @@
     <row r="571">
       <c r="B571" t="inlineStr">
         <is>
-          <t>Tetela del Volcán</t>
+          <t>Tetela Del Volcán</t>
         </is>
       </c>
       <c r="C571">
@@ -7999,7 +7999,7 @@
     <row r="581">
       <c r="B581" t="inlineStr">
         <is>
-          <t>Bahía de Banderas</t>
+          <t>Bahía De Banderas</t>
         </is>
       </c>
       <c r="C581">
@@ -8038,7 +8038,7 @@
     <row r="584">
       <c r="B584" t="inlineStr">
         <is>
-          <t>Ixtlán del Río</t>
+          <t>Ixtlán Del Río</t>
         </is>
       </c>
       <c r="C584">
@@ -8116,7 +8116,7 @@
     <row r="590">
       <c r="B590" t="inlineStr">
         <is>
-          <t>Santa María del Oro</t>
+          <t>Santa María Del Oro</t>
         </is>
       </c>
       <c r="C590">
@@ -8368,7 +8368,7 @@
     <row r="609">
       <c r="B609" t="inlineStr">
         <is>
-          <t>San Nicolás de los Garza</t>
+          <t>San Nicolás De Los Garza</t>
         </is>
       </c>
       <c r="C609">
@@ -8438,7 +8438,7 @@
     <row r="614">
       <c r="B614" t="inlineStr">
         <is>
-          <t>Acatlán de Pérez Figueroa</t>
+          <t>Acatlán De Pérez Figueroa</t>
         </is>
       </c>
       <c r="C614">
@@ -8516,7 +8516,7 @@
     <row r="620">
       <c r="B620" t="inlineStr">
         <is>
-          <t>Chalcatongo de Hidalgo</t>
+          <t>Chalcatongo De Hidalgo</t>
         </is>
       </c>
       <c r="C620">
@@ -8542,7 +8542,7 @@
     <row r="622">
       <c r="B622" t="inlineStr">
         <is>
-          <t>Coicoyán de las Flores</t>
+          <t>Coicoyán De Las Flores</t>
         </is>
       </c>
       <c r="C622">
@@ -8555,7 +8555,7 @@
     <row r="623">
       <c r="B623" t="inlineStr">
         <is>
-          <t>Constancia del Rosario</t>
+          <t>Constancia Del Rosario</t>
         </is>
       </c>
       <c r="C623">
@@ -8581,7 +8581,7 @@
     <row r="625">
       <c r="B625" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Ejutla de Crespo</t>
+          <t>Heroica Ciudad De Ejutla De Crespo</t>
         </is>
       </c>
       <c r="C625">
@@ -8594,7 +8594,7 @@
     <row r="626">
       <c r="B626" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Huajuapan de León</t>
+          <t>Heroica Ciudad De Huajuapan De León</t>
         </is>
       </c>
       <c r="C626">
@@ -8607,7 +8607,7 @@
     <row r="627">
       <c r="B627" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Tlaxiaco</t>
+          <t>Heroica Ciudad De Tlaxiaco</t>
         </is>
       </c>
       <c r="C627">
@@ -8620,7 +8620,7 @@
     <row r="628">
       <c r="B628" t="inlineStr">
         <is>
-          <t>Ixtlán de Juárez</t>
+          <t>Ixtlán De Juárez</t>
         </is>
       </c>
       <c r="C628">
@@ -8633,7 +8633,7 @@
     <row r="629">
       <c r="B629" t="inlineStr">
         <is>
-          <t>Heroica Ciudad de Juchitán de Zaragoza</t>
+          <t>Heroica Ciudad De Juchitán De Zaragoza</t>
         </is>
       </c>
       <c r="C629">
@@ -8705,13 +8705,13 @@
         <v>9</v>
       </c>
       <c r="D634">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="635">
       <c r="B635" t="inlineStr">
         <is>
-          <t>Mártires de Tacubaya</t>
+          <t>Mártires De Tacubaya</t>
         </is>
       </c>
       <c r="C635">
@@ -8737,7 +8737,7 @@
     <row r="637">
       <c r="B637" t="inlineStr">
         <is>
-          <t>Mazatlán Villa de Flores</t>
+          <t>Mazatlán Villa De Flores</t>
         </is>
       </c>
       <c r="C637">
@@ -8750,7 +8750,7 @@
     <row r="638">
       <c r="B638" t="inlineStr">
         <is>
-          <t>Miahuatlán de Porfirio Díaz</t>
+          <t>Miahuatlán De Porfirio Díaz</t>
         </is>
       </c>
       <c r="C638">
@@ -8763,7 +8763,7 @@
     <row r="639">
       <c r="B639" t="inlineStr">
         <is>
-          <t>Nejapa de Madero</t>
+          <t>Nejapa De Madero</t>
         </is>
       </c>
       <c r="C639">
@@ -8776,7 +8776,7 @@
     <row r="640">
       <c r="B640" t="inlineStr">
         <is>
-          <t>Oaxaca de Juárez</t>
+          <t>Oaxaca De Juárez</t>
         </is>
       </c>
       <c r="C640">
@@ -8789,7 +8789,7 @@
     <row r="641">
       <c r="B641" t="inlineStr">
         <is>
-          <t>Ocotlán de Morelos</t>
+          <t>Ocotlán De Morelos</t>
         </is>
       </c>
       <c r="C641">
@@ -8802,7 +8802,7 @@
     <row r="642">
       <c r="B642" t="inlineStr">
         <is>
-          <t>Pinotepa de Don Luis</t>
+          <t>Pinotepa De Don Luis</t>
         </is>
       </c>
       <c r="C642">
@@ -8815,7 +8815,7 @@
     <row r="643">
       <c r="B643" t="inlineStr">
         <is>
-          <t>Putla Villa de Guerrero</t>
+          <t>Putla Villa De Guerrero</t>
         </is>
       </c>
       <c r="C643">
@@ -8828,7 +8828,7 @@
     <row r="644">
       <c r="B644" t="inlineStr">
         <is>
-          <t>Reforma de Pineda</t>
+          <t>Reforma De Pineda</t>
         </is>
       </c>
       <c r="C644">
@@ -8997,7 +8997,7 @@
     <row r="657">
       <c r="B657" t="inlineStr">
         <is>
-          <t>San Dionisio del Mar</t>
+          <t>San Dionisio Del Mar</t>
         </is>
       </c>
       <c r="C657">
@@ -9017,7 +9017,7 @@
         <v>9</v>
       </c>
       <c r="D658">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="659">
@@ -9036,7 +9036,7 @@
     <row r="660">
       <c r="B660" t="inlineStr">
         <is>
-          <t>San Felipe Jalapa de Díaz</t>
+          <t>San Felipe Jalapa De Díaz</t>
         </is>
       </c>
       <c r="C660">
@@ -9095,7 +9095,7 @@
         <v>9</v>
       </c>
       <c r="D664">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="665">
@@ -9153,7 +9153,7 @@
     <row r="669">
       <c r="B669" t="inlineStr">
         <is>
-          <t>San Juan Bautista Lo de Soto</t>
+          <t>San Juan Bautista Lo De Soto</t>
         </is>
       </c>
       <c r="C669">
@@ -9277,7 +9277,7 @@
         <v>9</v>
       </c>
       <c r="D678">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="679">
@@ -9530,7 +9530,7 @@
     <row r="698">
       <c r="B698" t="inlineStr">
         <is>
-          <t>San Miguel del Puerto</t>
+          <t>San Miguel Del Puerto</t>
         </is>
       </c>
       <c r="C698">
@@ -9582,7 +9582,7 @@
     <row r="702">
       <c r="B702" t="inlineStr">
         <is>
-          <t>San Pablo Villa de Mitla</t>
+          <t>San Pablo Villa De Mitla</t>
         </is>
       </c>
       <c r="C702">
@@ -9784,7 +9784,7 @@
         <v>9</v>
       </c>
       <c r="D717">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="718">
@@ -9803,7 +9803,7 @@
     <row r="719">
       <c r="B719" t="inlineStr">
         <is>
-          <t>Santa Cruz Tacache de Mina</t>
+          <t>Santa Cruz Tacache De Mina</t>
         </is>
       </c>
       <c r="C719">
@@ -9842,7 +9842,7 @@
     <row r="722">
       <c r="B722" t="inlineStr">
         <is>
-          <t>Santa Inés del Monte</t>
+          <t>Santa Inés Del Monte</t>
         </is>
       </c>
       <c r="C722">
@@ -9914,7 +9914,7 @@
         <v>9</v>
       </c>
       <c r="D727">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="728">
@@ -9959,7 +9959,7 @@
     <row r="731">
       <c r="B731" t="inlineStr">
         <is>
-          <t>Santa María Jalapa del Marqués</t>
+          <t>Santa María Jalapa Del Marqués</t>
         </is>
       </c>
       <c r="C731">
@@ -10271,7 +10271,7 @@
     <row r="755">
       <c r="B755" t="inlineStr">
         <is>
-          <t>Santo Domingo de Morelos</t>
+          <t>Santo Domingo De Morelos</t>
         </is>
       </c>
       <c r="C755">
@@ -10356,7 +10356,7 @@
         <v>9</v>
       </c>
       <c r="D761">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="762">
@@ -10375,7 +10375,7 @@
     <row r="763">
       <c r="B763" t="inlineStr">
         <is>
-          <t>Tamazulápam del Espíritu Santo</t>
+          <t>Tamazulápam Del Espíritu Santo</t>
         </is>
       </c>
       <c r="C763">
@@ -10388,7 +10388,7 @@
     <row r="764">
       <c r="B764" t="inlineStr">
         <is>
-          <t>Tataltepec de Valdés</t>
+          <t>Tataltepec De Valdés</t>
         </is>
       </c>
       <c r="C764">
@@ -10401,7 +10401,7 @@
     <row r="765">
       <c r="B765" t="inlineStr">
         <is>
-          <t>Teotitlán de Flores Magón</t>
+          <t>Teotitlán De Flores Magón</t>
         </is>
       </c>
       <c r="C765">
@@ -10414,7 +10414,7 @@
     <row r="766">
       <c r="B766" t="inlineStr">
         <is>
-          <t>Heroica Villa Tezoatlán de Segura y Luna, Cuna de la Independencia de Oaxaca</t>
+          <t>Heroica Villa Tezoatlán De Segura Y Luna, Cuna De La Independencia De Oaxaca</t>
         </is>
       </c>
       <c r="C766">
@@ -10427,7 +10427,7 @@
     <row r="767">
       <c r="B767" t="inlineStr">
         <is>
-          <t>Tlacolula de Matamoros</t>
+          <t>Tlacolula De Matamoros</t>
         </is>
       </c>
       <c r="C767">
@@ -10453,7 +10453,7 @@
     <row r="769">
       <c r="B769" t="inlineStr">
         <is>
-          <t>Villa de Tututepec</t>
+          <t>Villa De Tututepec</t>
         </is>
       </c>
       <c r="C769">
@@ -10466,7 +10466,7 @@
     <row r="770">
       <c r="B770" t="inlineStr">
         <is>
-          <t>Villa de Zaachila</t>
+          <t>Villa De Zaachila</t>
         </is>
       </c>
       <c r="C770">
@@ -10492,7 +10492,7 @@
     <row r="772">
       <c r="B772" t="inlineStr">
         <is>
-          <t>Villa Sola de Vega</t>
+          <t>Villa Sola De Vega</t>
         </is>
       </c>
       <c r="C772">
@@ -10505,7 +10505,7 @@
     <row r="773">
       <c r="B773" t="inlineStr">
         <is>
-          <t>Zapotitlán del Río</t>
+          <t>Zapotitlán Del Río</t>
         </is>
       </c>
       <c r="C773">
@@ -10518,7 +10518,7 @@
     <row r="774">
       <c r="B774" t="inlineStr">
         <is>
-          <t>Zimatlán de Álvarez</t>
+          <t>Zimatlán De Álvarez</t>
         </is>
       </c>
       <c r="C774">
@@ -10647,7 +10647,7 @@
         <v>9</v>
       </c>
       <c r="D783">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="784">
@@ -10679,7 +10679,7 @@
     <row r="786">
       <c r="B786" t="inlineStr">
         <is>
-          <t>Ayotoxco de Guerrero</t>
+          <t>Ayotoxco De Guerrero</t>
         </is>
       </c>
       <c r="C786">
@@ -10705,7 +10705,7 @@
     <row r="788">
       <c r="B788" t="inlineStr">
         <is>
-          <t>Chalchicomula de Sesma</t>
+          <t>Chalchicomula De Sesma</t>
         </is>
       </c>
       <c r="C788">
@@ -10809,7 +10809,7 @@
     <row r="796">
       <c r="B796" t="inlineStr">
         <is>
-          <t>Chila de la Sal</t>
+          <t>Chila De La Sal</t>
         </is>
       </c>
       <c r="C796">
@@ -10913,7 +10913,7 @@
     <row r="804">
       <c r="B804" t="inlineStr">
         <is>
-          <t>Cuetzalan del Progreso</t>
+          <t>Cuetzalan Del Progreso</t>
         </is>
       </c>
       <c r="C804">
@@ -11063,13 +11063,13 @@
         <v>9</v>
       </c>
       <c r="D815">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="816">
       <c r="B816" t="inlineStr">
         <is>
-          <t>Ixcamilpa de Guerrero</t>
+          <t>Ixcamilpa De Guerrero</t>
         </is>
       </c>
       <c r="C816">
@@ -11095,14 +11095,14 @@
     <row r="818">
       <c r="B818" t="inlineStr">
         <is>
-          <t>Izúcar de Matamoros</t>
+          <t>Izúcar De Matamoros</t>
         </is>
       </c>
       <c r="C818">
         <v>9</v>
       </c>
       <c r="D818">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="819">
@@ -11173,7 +11173,7 @@
     <row r="824">
       <c r="B824" t="inlineStr">
         <is>
-          <t>Mazapiltepec de Juárez</t>
+          <t>Mazapiltepec De Juárez</t>
         </is>
       </c>
       <c r="C824">
@@ -11232,13 +11232,13 @@
         <v>9</v>
       </c>
       <c r="D828">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="829">
       <c r="B829" t="inlineStr">
         <is>
-          <t>Palmar de Bravo</t>
+          <t>Palmar De Bravo</t>
         </is>
       </c>
       <c r="C829">
@@ -11433,7 +11433,7 @@
     <row r="844">
       <c r="B844" t="inlineStr">
         <is>
-          <t>San Salvador el Seco</t>
+          <t>San Salvador El Seco</t>
         </is>
       </c>
       <c r="C844">
@@ -11550,7 +11550,7 @@
     <row r="853">
       <c r="B853" t="inlineStr">
         <is>
-          <t>Tepatlaxco de Hidalgo</t>
+          <t>Tepatlaxco De Hidalgo</t>
         </is>
       </c>
       <c r="C853">
@@ -11589,7 +11589,7 @@
     <row r="856">
       <c r="B856" t="inlineStr">
         <is>
-          <t>Tepexi de Rodríguez</t>
+          <t>Tepexi De Rodríguez</t>
         </is>
       </c>
       <c r="C856">
@@ -11615,7 +11615,7 @@
     <row r="858">
       <c r="B858" t="inlineStr">
         <is>
-          <t>Tetela de Ocampo</t>
+          <t>Tetela De Ocampo</t>
         </is>
       </c>
       <c r="C858">
@@ -11667,7 +11667,7 @@
     <row r="862">
       <c r="B862" t="inlineStr">
         <is>
-          <t>Tlacotepec de Benito Juárez</t>
+          <t>Tlacotepec De Benito Juárez</t>
         </is>
       </c>
       <c r="C862">
@@ -11771,7 +11771,7 @@
     <row r="870">
       <c r="B870" t="inlineStr">
         <is>
-          <t>Xayacatlán de Bravo</t>
+          <t>Xayacatlán De Bravo</t>
         </is>
       </c>
       <c r="C870">
@@ -11875,7 +11875,7 @@
     <row r="878">
       <c r="B878" t="inlineStr">
         <is>
-          <t>Zapotitlán de Méndez</t>
+          <t>Zapotitlán De Méndez</t>
         </is>
       </c>
       <c r="C878">
@@ -11945,7 +11945,7 @@
       </c>
       <c r="B883" t="inlineStr">
         <is>
-          <t>Amealco de Bonfil</t>
+          <t>Amealco De Bonfil</t>
         </is>
       </c>
       <c r="C883">
@@ -11971,7 +11971,7 @@
     <row r="885">
       <c r="B885" t="inlineStr">
         <is>
-          <t>Cadereyta de Montes</t>
+          <t>Cadereyta De Montes</t>
         </is>
       </c>
       <c r="C885">
@@ -12010,20 +12010,20 @@
     <row r="888">
       <c r="B888" t="inlineStr">
         <is>
-          <t>Jalpan de Serra</t>
+          <t>Jalpan De Serra</t>
         </is>
       </c>
       <c r="C888">
         <v>9</v>
       </c>
       <c r="D888">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="889">
       <c r="B889" t="inlineStr">
         <is>
-          <t>Landa de Matamoros</t>
+          <t>Landa De Matamoros</t>
         </is>
       </c>
       <c r="C889">
@@ -12062,7 +12062,7 @@
     <row r="892">
       <c r="B892" t="inlineStr">
         <is>
-          <t>Pinal de Amoles</t>
+          <t>Pinal De Amoles</t>
         </is>
       </c>
       <c r="C892">
@@ -12101,7 +12101,7 @@
     <row r="895">
       <c r="B895" t="inlineStr">
         <is>
-          <t>San Juan del Río</t>
+          <t>San Juan Del Río</t>
         </is>
       </c>
       <c r="C895">
@@ -12178,7 +12178,7 @@
         <v>9</v>
       </c>
       <c r="D900">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="901">
@@ -12241,7 +12241,7 @@
     <row r="905">
       <c r="B905" t="inlineStr">
         <is>
-          <t>Armadillo de los Infante</t>
+          <t>Armadillo De Los Infante</t>
         </is>
       </c>
       <c r="C905">
@@ -12254,7 +12254,7 @@
     <row r="906">
       <c r="B906" t="inlineStr">
         <is>
-          <t>Axtla de Terrazas</t>
+          <t>Axtla De Terrazas</t>
         </is>
       </c>
       <c r="C906">
@@ -12306,7 +12306,7 @@
     <row r="910">
       <c r="B910" t="inlineStr">
         <is>
-          <t>Ciudad del Maíz</t>
+          <t>Ciudad Del Maíz</t>
         </is>
       </c>
       <c r="C910">
@@ -12436,7 +12436,7 @@
     <row r="920">
       <c r="B920" t="inlineStr">
         <is>
-          <t>Mexquitic de Carmona</t>
+          <t>Mexquitic De Carmona</t>
         </is>
       </c>
       <c r="C920">
@@ -12488,14 +12488,14 @@
     <row r="924">
       <c r="B924" t="inlineStr">
         <is>
-          <t>San Ciro de Acosta</t>
+          <t>San Ciro De Acosta</t>
         </is>
       </c>
       <c r="C924">
         <v>9</v>
       </c>
       <c r="D924">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="925">
@@ -12553,14 +12553,14 @@
     <row r="929">
       <c r="B929" t="inlineStr">
         <is>
-          <t>Santa María del Río</t>
+          <t>Santa María Del Río</t>
         </is>
       </c>
       <c r="C929">
         <v>9</v>
       </c>
       <c r="D929">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="930">
@@ -12670,7 +12670,7 @@
     <row r="938">
       <c r="B938" t="inlineStr">
         <is>
-          <t>Villa de Arista</t>
+          <t>Villa De Arista</t>
         </is>
       </c>
       <c r="C938">
@@ -12683,7 +12683,7 @@
     <row r="939">
       <c r="B939" t="inlineStr">
         <is>
-          <t>Villa de Guadalupe</t>
+          <t>Villa De Guadalupe</t>
         </is>
       </c>
       <c r="C939">
@@ -12696,7 +12696,7 @@
     <row r="940">
       <c r="B940" t="inlineStr">
         <is>
-          <t>Villa de Ramos</t>
+          <t>Villa De Ramos</t>
         </is>
       </c>
       <c r="C940">
@@ -12709,7 +12709,7 @@
     <row r="941">
       <c r="B941" t="inlineStr">
         <is>
-          <t>Villa de Reyes</t>
+          <t>Villa De Reyes</t>
         </is>
       </c>
       <c r="C941">
@@ -13005,7 +13005,7 @@
     <row r="963">
       <c r="B963" t="inlineStr">
         <is>
-          <t>Nacozari de García</t>
+          <t>Nacozari De García</t>
         </is>
       </c>
       <c r="C963">
@@ -13166,7 +13166,7 @@
     <row r="975">
       <c r="B975" t="inlineStr">
         <is>
-          <t>Jalpa de Méndez</t>
+          <t>Jalpa De Méndez</t>
         </is>
       </c>
       <c r="C975">
@@ -13431,7 +13431,7 @@
     <row r="995">
       <c r="B995" t="inlineStr">
         <is>
-          <t>Soto la Marina</t>
+          <t>Soto La Marina</t>
         </is>
       </c>
       <c r="C995">
@@ -13592,7 +13592,7 @@
     <row r="1007">
       <c r="B1007" t="inlineStr">
         <is>
-          <t>Contla de Juan Cuamatzi</t>
+          <t>Contla De Juan Cuamatzi</t>
         </is>
       </c>
       <c r="C1007">
@@ -13625,13 +13625,13 @@
         <v>9</v>
       </c>
       <c r="D1009">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="1010">
       <c r="B1010" t="inlineStr">
         <is>
-          <t>Ixtacuixtla de Mariano Matamoros</t>
+          <t>Ixtacuixtla De Mariano Matamoros</t>
         </is>
       </c>
       <c r="C1010">
@@ -13644,7 +13644,7 @@
     <row r="1011">
       <c r="B1011" t="inlineStr">
         <is>
-          <t>Nanacamilpa de Mariano Arista</t>
+          <t>Nanacamilpa De Mariano Arista</t>
         </is>
       </c>
       <c r="C1011">
@@ -13683,7 +13683,7 @@
     <row r="1014">
       <c r="B1014" t="inlineStr">
         <is>
-          <t>San Pablo del Monte</t>
+          <t>San Pablo Del Monte</t>
         </is>
       </c>
       <c r="C1014">
@@ -13857,7 +13857,7 @@
     <row r="1027">
       <c r="B1027" t="inlineStr">
         <is>
-          <t>Alto Lucero de Gutiérrez Barrios</t>
+          <t>Alto Lucero De Gutiérrez Barrios</t>
         </is>
       </c>
       <c r="C1027">
@@ -13909,7 +13909,7 @@
     <row r="1031">
       <c r="B1031" t="inlineStr">
         <is>
-          <t>Amatlán de los Reyes</t>
+          <t>Amatlán De Los Reyes</t>
         </is>
       </c>
       <c r="C1031">
@@ -14039,7 +14039,7 @@
     <row r="1041">
       <c r="B1041" t="inlineStr">
         <is>
-          <t>Boca del Río</t>
+          <t>Boca Del Río</t>
         </is>
       </c>
       <c r="C1041">
@@ -14065,7 +14065,7 @@
     <row r="1043">
       <c r="B1043" t="inlineStr">
         <is>
-          <t>Camarón de Tejeda</t>
+          <t>Camarón De Tejeda</t>
         </is>
       </c>
       <c r="C1043">
@@ -14299,7 +14299,7 @@
     <row r="1061">
       <c r="B1061" t="inlineStr">
         <is>
-          <t>Cosamaloapan de Carpio</t>
+          <t>Cosamaloapan De Carpio</t>
         </is>
       </c>
       <c r="C1061">
@@ -14312,7 +14312,7 @@
     <row r="1062">
       <c r="B1062" t="inlineStr">
         <is>
-          <t>Cosautlán de Carvajal</t>
+          <t>Cosautlán De Carvajal</t>
         </is>
       </c>
       <c r="C1062">
@@ -14371,7 +14371,7 @@
         <v>9</v>
       </c>
       <c r="D1066">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="1067">
@@ -14384,7 +14384,7 @@
         <v>9</v>
       </c>
       <c r="D1067">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="1068">
@@ -14507,7 +14507,7 @@
     <row r="1077">
       <c r="B1077" t="inlineStr">
         <is>
-          <t>Hueyapan de Ocampo</t>
+          <t>Hueyapan De Ocampo</t>
         </is>
       </c>
       <c r="C1077">
@@ -14520,7 +14520,7 @@
     <row r="1078">
       <c r="B1078" t="inlineStr">
         <is>
-          <t>Ignacio de la Llave</t>
+          <t>Ignacio De La Llave</t>
         </is>
       </c>
       <c r="C1078">
@@ -14559,7 +14559,7 @@
     <row r="1081">
       <c r="B1081" t="inlineStr">
         <is>
-          <t>Ixhuacán de los Reyes</t>
+          <t>Ixhuacán De Los Reyes</t>
         </is>
       </c>
       <c r="C1081">
@@ -14572,7 +14572,7 @@
     <row r="1082">
       <c r="B1082" t="inlineStr">
         <is>
-          <t>Ixhuatlán de Madero</t>
+          <t>Ixhuatlán De Madero</t>
         </is>
       </c>
       <c r="C1082">
@@ -14585,7 +14585,7 @@
     <row r="1083">
       <c r="B1083" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Café</t>
+          <t>Ixhuatlán Del Café</t>
         </is>
       </c>
       <c r="C1083">
@@ -14598,7 +14598,7 @@
     <row r="1084">
       <c r="B1084" t="inlineStr">
         <is>
-          <t>Ixhuatlán del Sureste</t>
+          <t>Ixhuatlán Del Sureste</t>
         </is>
       </c>
       <c r="C1084">
@@ -14689,7 +14689,7 @@
     <row r="1091">
       <c r="B1091" t="inlineStr">
         <is>
-          <t>Juchique de Ferrer</t>
+          <t>Juchique De Ferrer</t>
         </is>
       </c>
       <c r="C1091">
@@ -14741,14 +14741,14 @@
     <row r="1095">
       <c r="B1095" t="inlineStr">
         <is>
-          <t>Lerdo de Tejada</t>
+          <t>Lerdo De Tejada</t>
         </is>
       </c>
       <c r="C1095">
         <v>9</v>
       </c>
       <c r="D1095">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="1096">
@@ -14793,7 +14793,7 @@
     <row r="1099">
       <c r="B1099" t="inlineStr">
         <is>
-          <t>Martínez de la Torre</t>
+          <t>Martínez De La Torre</t>
         </is>
       </c>
       <c r="C1099">
@@ -14832,14 +14832,14 @@
     <row r="1102">
       <c r="B1102" t="inlineStr">
         <is>
-          <t>Medellín de Bravo</t>
+          <t>Medellín De Bravo</t>
         </is>
       </c>
       <c r="C1102">
         <v>9</v>
       </c>
       <c r="D1102">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="1103">
@@ -14871,7 +14871,7 @@
     <row r="1105">
       <c r="B1105" t="inlineStr">
         <is>
-          <t>Mixtla de Altamirano</t>
+          <t>Mixtla De Altamirano</t>
         </is>
       </c>
       <c r="C1105">
@@ -14988,7 +14988,7 @@
     <row r="1114">
       <c r="B1114" t="inlineStr">
         <is>
-          <t>Ozuluama de Mascareñas</t>
+          <t>Ozuluama De Mascareñas</t>
         </is>
       </c>
       <c r="C1114">
@@ -15027,7 +15027,7 @@
     <row r="1117">
       <c r="B1117" t="inlineStr">
         <is>
-          <t>Paso de Ovejas</t>
+          <t>Paso De Ovejas</t>
         </is>
       </c>
       <c r="C1117">
@@ -15040,7 +15040,7 @@
     <row r="1118">
       <c r="B1118" t="inlineStr">
         <is>
-          <t>Paso del Macho</t>
+          <t>Paso Del Macho</t>
         </is>
       </c>
       <c r="C1118">
@@ -15092,7 +15092,7 @@
     <row r="1122">
       <c r="B1122" t="inlineStr">
         <is>
-          <t>Poza Rica de Hidalgo</t>
+          <t>Poza Rica De Hidalgo</t>
         </is>
       </c>
       <c r="C1122">
@@ -15196,7 +15196,7 @@
     <row r="1130">
       <c r="B1130" t="inlineStr">
         <is>
-          <t>Sayula de Alemán</t>
+          <t>Sayula De Alemán</t>
         </is>
       </c>
       <c r="C1130">
@@ -15248,7 +15248,7 @@
     <row r="1134">
       <c r="B1134" t="inlineStr">
         <is>
-          <t>Soledad de Doblado</t>
+          <t>Soledad De Doblado</t>
         </is>
       </c>
       <c r="C1134">
@@ -15287,7 +15287,7 @@
     <row r="1137">
       <c r="B1137" t="inlineStr">
         <is>
-          <t>Tatahuicapan de Juárez</t>
+          <t>Tatahuicapan De Juárez</t>
         </is>
       </c>
       <c r="C1137">
@@ -15411,7 +15411,7 @@
         <v>9</v>
       </c>
       <c r="D1146">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="1147">
@@ -15625,7 +15625,7 @@
     <row r="1163">
       <c r="B1163" t="inlineStr">
         <is>
-          <t>Vega de Alatorre</t>
+          <t>Vega De Alatorre</t>
         </is>
       </c>
       <c r="C1163">
@@ -15697,7 +15697,7 @@
         <v>9</v>
       </c>
       <c r="D1168">
-        <v>0.0009068923821039903</v>
+        <v>0.0009068923821039904</v>
       </c>
     </row>
     <row r="1169">
@@ -15843,7 +15843,7 @@
       </c>
       <c r="B1179" t="inlineStr">
         <is>
-          <t>Cañitas de Felipe Pescador</t>
+          <t>Cañitas De Felipe Pescador</t>
         </is>
       </c>
       <c r="C1179">
@@ -15960,7 +15960,7 @@
     <row r="1188">
       <c r="B1188" t="inlineStr">
         <is>
-          <t>Jiménez del Teul</t>
+          <t>Jiménez Del Teul</t>
         </is>
       </c>
       <c r="C1188">
@@ -15986,7 +15986,7 @@
     <row r="1190">
       <c r="B1190" t="inlineStr">
         <is>
-          <t>Mezquital del Oro</t>
+          <t>Mezquital Del Oro</t>
         </is>
       </c>
       <c r="C1190">
@@ -16012,7 +16012,7 @@
     <row r="1192">
       <c r="B1192" t="inlineStr">
         <is>
-          <t>Nochistlán de Mejía</t>
+          <t>Nochistlán De Mejía</t>
         </is>
       </c>
       <c r="C1192">
@@ -16025,7 +16025,7 @@
     <row r="1193">
       <c r="B1193" t="inlineStr">
         <is>
-          <t>Noria de Ángeles</t>
+          <t>Noria De Ángeles</t>
         </is>
       </c>
       <c r="C1193">
@@ -16090,7 +16090,7 @@
     <row r="1198">
       <c r="B1198" t="inlineStr">
         <is>
-          <t>Teúl de González Ortega</t>
+          <t>Teúl De González Ortega</t>
         </is>
       </c>
       <c r="C1198">
@@ -16129,7 +16129,7 @@
     <row r="1201">
       <c r="B1201" t="inlineStr">
         <is>
-          <t>Villa de Cos</t>
+          <t>Villa De Cos</t>
         </is>
       </c>
       <c r="C1201">
@@ -16202,41 +16202,6 @@
       </c>
       <c r="D1206">
         <v>1</v>
-      </c>
-    </row>
-    <row r="1208">
-      <c r="A1208" t="inlineStr">
-        <is>
-          <t>Tamaño de la muestra: 814,748</t>
-        </is>
-      </c>
-    </row>
-    <row r="1209">
-      <c r="A1209" t="inlineStr">
-        <is>
-          <t>Fuente: Expedición de Matrículas Consulares de Alta Seguridad en los Consulados de México en E.E.U.U.</t>
-        </is>
-      </c>
-    </row>
-    <row r="1210">
-      <c r="A1210" t="inlineStr">
-        <is>
-          <t>Elaborado por: Análisis de Información, Instituto de los Mexicanos en el Exterior</t>
-        </is>
-      </c>
-    </row>
-    <row r="1211">
-      <c r="A1211" t="inlineStr">
-        <is>
-          <t>Secretaría de Relaciones Exteriores</t>
-        </is>
-      </c>
-    </row>
-    <row r="1212">
-      <c r="A1212" t="inlineStr">
-        <is>
-          <t>Marzo de 2017</t>
-        </is>
       </c>
     </row>
   </sheetData>
